--- a/Unit_Test_Plan_v0.1.xlsx
+++ b/Unit_Test_Plan_v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Banking Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B32A32-EEEC-48DB-81A0-2148FBA9DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD239BF-248C-492B-9FB2-6FE889C1AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
   </bookViews>
@@ -784,17 +784,17 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
